--- a/results/Comparison of Test Suite Size Reduction Between K-means and K-means++.xlsx
+++ b/results/Comparison of Test Suite Size Reduction Between K-means and K-means++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Thesis\Thesis Results\Updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E902EB-CBD2-4F72-9198-071C6D73A768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527AE84-9165-4E66-BE66-0DA9D9A8155A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95A38B6A-4721-4EB4-A8E1-C673E0DB6605}"/>
   </bookViews>
@@ -26,106 +26,161 @@
     <sheet name="alpha =50" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'alpha = 5'!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'alpha = 5'!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'alpha = 40'!$A$2:$A$27</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'alpha = 40'!$B$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'alpha = 40'!$B$2:$B$27</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'alpha = 40'!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'alpha = 40'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'alpha = 30'!$A$2:$A$27</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'alpha = 20'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'alpha = 20'!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'alpha = 35'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">'alpha = 5'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">'alpha = 5'!$B$1</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">'alpha = 5'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">'alpha = 5'!$C$1</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">'alpha = 5'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">'alpha = 10'!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">'alpha = 10'!$B$1</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">'alpha = 10'!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">'alpha = 10'!$C$1</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">'alpha = 10'!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'alpha = 35'!$B$1</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">'alpha = 15'!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">'alpha = 15'!$B$1</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">'alpha = 15'!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">'alpha = 15'!$C$1</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">'alpha = 15'!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">'alpha = 20'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">'alpha = 20'!$B$1</definedName>
+    <definedName name="_xlchart.v1.117" hidden="1">'alpha = 20'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.118" hidden="1">'alpha = 20'!$C$1</definedName>
+    <definedName name="_xlchart.v1.119" hidden="1">'alpha = 20'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'alpha = 35'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.120" hidden="1">'alpha = 25'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.121" hidden="1">'alpha = 25'!$B$1</definedName>
+    <definedName name="_xlchart.v1.122" hidden="1">'alpha = 25'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.123" hidden="1">'alpha = 25'!$C$1</definedName>
+    <definedName name="_xlchart.v1.124" hidden="1">'alpha = 25'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.125" hidden="1">'alpha = 30'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.126" hidden="1">'alpha = 30'!$B$1</definedName>
+    <definedName name="_xlchart.v1.127" hidden="1">'alpha = 30'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.128" hidden="1">'alpha = 30'!$C$1</definedName>
+    <definedName name="_xlchart.v1.129" hidden="1">'alpha = 30'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'alpha = 35'!$C$1</definedName>
+    <definedName name="_xlchart.v1.130" hidden="1">'alpha = 35'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.131" hidden="1">'alpha = 35'!$B$1</definedName>
+    <definedName name="_xlchart.v1.132" hidden="1">'alpha = 35'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.133" hidden="1">'alpha = 35'!$C$1</definedName>
+    <definedName name="_xlchart.v1.134" hidden="1">'alpha = 35'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.135" hidden="1">'alpha = 40'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.136" hidden="1">'alpha = 40'!$B$1</definedName>
+    <definedName name="_xlchart.v1.137" hidden="1">'alpha = 40'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.138" hidden="1">'alpha = 40'!$C$1</definedName>
+    <definedName name="_xlchart.v1.139" hidden="1">'alpha = 40'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'alpha = 35'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.140" hidden="1">'alpha = 45'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.141" hidden="1">'alpha = 45'!$B$1</definedName>
+    <definedName name="_xlchart.v1.142" hidden="1">'alpha = 45'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.143" hidden="1">'alpha = 45'!$C$1</definedName>
+    <definedName name="_xlchart.v1.144" hidden="1">'alpha = 45'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.145" hidden="1">'alpha =50'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.146" hidden="1">'alpha =50'!$B$1</definedName>
+    <definedName name="_xlchart.v1.147" hidden="1">'alpha =50'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.148" hidden="1">'alpha =50'!$C$1</definedName>
+    <definedName name="_xlchart.v1.149" hidden="1">'alpha =50'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'alpha = 30'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.150" hidden="1">'alpha =50'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.151" hidden="1">'alpha =50'!$B$1</definedName>
+    <definedName name="_xlchart.v1.152" hidden="1">'alpha =50'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.153" hidden="1">'alpha =50'!$C$1</definedName>
+    <definedName name="_xlchart.v1.154" hidden="1">'alpha =50'!$C$2:$C$21</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">'alpha = 30'!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'alpha = 30'!$B$2:$B$27</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'alpha = 30'!$B$2:$B$17</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">'alpha = 30'!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'alpha = 30'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'alpha = 5'!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'alpha = 25'!$A$2:$A$28</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'alpha = 25'!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'alpha = 25'!$B$2:$B$28</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'alpha = 25'!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'alpha = 25'!$C$2:$C$28</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'alpha = 10'!$A$2:$A$23</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'alpha = 10'!$B$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'alpha = 10'!$B$2:$B$23</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'alpha = 10'!$C$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'alpha = 10'!$C$2:$C$23</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'alpha = 5'!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'alpha = 45'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'alpha = 45'!$B$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'alpha = 45'!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'alpha = 45'!$C$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'alpha = 45'!$C$2:$C$26</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'alpha = 20'!$A$2:$A$27</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'alpha = 20'!$B$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'alpha = 20'!$B$2:$B$27</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'alpha = 20'!$C$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'alpha = 20'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'alpha = 5'!$C$2:$C$17</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'alpha = 35'!$A$2:$A$24</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'alpha = 35'!$B$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'alpha = 35'!$B$2:$B$24</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'alpha = 35'!$C$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'alpha = 35'!$C$2:$C$24</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'alpha =50'!$A$2:$A$36</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'alpha =50'!$B$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'alpha =50'!$B$2:$B$36</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'alpha =50'!$C$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'alpha =50'!$C$2:$C$36</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'alpha = 15'!$A$2:$A$30</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'alpha = 5'!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'alpha = 5'!$B$1</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'alpha = 5'!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'alpha = 5'!$C$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'alpha = 5'!$C$2:$C$17</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'alpha = 10'!$A$2:$A$23</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'alpha = 10'!$B$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'alpha = 10'!$B$2:$B$23</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'alpha = 10'!$C$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'alpha = 10'!$C$2:$C$23</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'alpha = 30'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'alpha = 20'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'alpha =50'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'alpha =50'!$B$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'alpha =50'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'alpha =50'!$C$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'alpha =50'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'alpha = 40'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'alpha = 40'!$B$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'alpha = 40'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'alpha = 40'!$C$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'alpha = 40'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'alpha = 20'!$C$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'alpha = 10'!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'alpha = 10'!$B$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'alpha = 10'!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'alpha = 10'!$C$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'alpha = 10'!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'alpha = 45'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'alpha = 45'!$B$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'alpha = 45'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'alpha = 45'!$C$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'alpha = 45'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'alpha = 20'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'alpha = 25'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'alpha = 25'!$B$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'alpha = 25'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'alpha = 25'!$C$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'alpha = 25'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'alpha = 5'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'alpha = 5'!$B$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'alpha = 5'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'alpha = 5'!$C$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'alpha = 5'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'alpha = 15'!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'alpha = 10'!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'alpha = 10'!$B$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'alpha = 10'!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'alpha = 10'!$C$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'alpha = 10'!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'alpha = 20'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'alpha = 20'!$B$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'alpha = 20'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'alpha = 20'!$C$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'alpha = 20'!$C$2:$C$17</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'alpha = 15'!$B$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'alpha = 15'!$A$2:$A$30</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">'alpha = 15'!$A$2:$A$20</definedName>
     <definedName name="_xlchart.v1.61" hidden="1">'alpha = 15'!$B$1</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">'alpha = 15'!$B$2:$B$30</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">'alpha = 15'!$B$2:$B$20</definedName>
     <definedName name="_xlchart.v1.63" hidden="1">'alpha = 15'!$C$1</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">'alpha = 15'!$C$2:$C$30</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">'alpha = 20'!$A$2:$A$27</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">'alpha = 20'!$B$1</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">'alpha = 20'!$B$2:$B$27</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">'alpha = 20'!$C$1</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">'alpha = 20'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'alpha = 15'!$B$2:$B$30</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">'alpha = 25'!$A$2:$A$28</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">'alpha = 15'!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">'alpha = 5'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">'alpha = 5'!$B$1</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">'alpha = 5'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">'alpha = 5'!$C$1</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">'alpha = 5'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'alpha = 15'!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">'alpha = 25'!$A$2:$A$17</definedName>
     <definedName name="_xlchart.v1.71" hidden="1">'alpha = 25'!$B$1</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">'alpha = 25'!$B$2:$B$28</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">'alpha = 25'!$B$2:$B$17</definedName>
     <definedName name="_xlchart.v1.73" hidden="1">'alpha = 25'!$C$1</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">'alpha = 25'!$C$2:$C$28</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">'alpha = 30'!$A$2:$A$27</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">'alpha = 30'!$B$1</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">'alpha = 30'!$B$2:$B$27</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">'alpha = 30'!$C$1</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">'alpha = 30'!$C$2:$C$27</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">'alpha = 25'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">'alpha =50'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">'alpha =50'!$B$1</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">'alpha =50'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">'alpha =50'!$C$1</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">'alpha =50'!$C$2:$C$21</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'alpha = 15'!$C$1</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">'alpha = 35'!$A$2:$A$24</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">'alpha = 35'!$B$1</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">'alpha = 35'!$B$2:$B$24</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">'alpha = 35'!$C$1</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">'alpha = 35'!$C$2:$C$24</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">'alpha = 40'!$A$2:$A$27</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">'alpha = 45'!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">'alpha = 45'!$B$1</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">'alpha = 45'!$B$2:$B$21</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">'alpha = 45'!$C$1</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">'alpha = 45'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">'alpha = 40'!$A$2:$A$21</definedName>
     <definedName name="_xlchart.v1.86" hidden="1">'alpha = 40'!$B$1</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">'alpha = 40'!$B$2:$B$27</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">'alpha = 40'!$B$2:$B$21</definedName>
     <definedName name="_xlchart.v1.88" hidden="1">'alpha = 40'!$C$1</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">'alpha = 40'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'alpha = 15'!$C$2:$C$30</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">'alpha = 45'!$A$2:$A$26</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">'alpha = 45'!$B$1</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">'alpha = 45'!$B$2:$B$26</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">'alpha = 45'!$C$1</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">'alpha = 45'!$C$2:$C$26</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">'alpha =50'!$A$2:$A$36</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">'alpha =50'!$B$1</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">'alpha =50'!$B$2:$B$36</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">'alpha =50'!$C$1</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">'alpha =50'!$C$2:$C$36</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">'alpha = 40'!$C$2:$C$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'alpha = 15'!$C$2:$C$20</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">'alpha = 30'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">'alpha = 30'!$B$1</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">'alpha = 30'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">'alpha = 30'!$C$1</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">'alpha = 30'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">'alpha = 35'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">'alpha = 35'!$B$1</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">'alpha = 35'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">'alpha = 35'!$C$1</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">'alpha = 35'!$C$2:$C$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -147,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="9">
   <si>
     <t>uuid</t>
   </si>
@@ -264,11 +319,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -304,18 +358,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.65</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.67</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.65</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.69</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -353,7 +407,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8FDFB772-DBBC-452E-8BFE-1FA09A957798}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.66</cx:f>
               <cx:v>Reduction By K-means</cx:v>
             </cx:txData>
           </cx:tx>
@@ -366,7 +420,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1FE11574-4EB6-44CF-A221-F9ADD92AE81C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.68</cx:f>
               <cx:v>Reduction By K-means ++</cx:v>
             </cx:txData>
           </cx:tx>
@@ -397,18 +451,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.75</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
+        <cx:f>_xlchart.v1.77</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.75</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
+        <cx:f>_xlchart.v1.79</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -446,7 +500,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2A073B5F-D6A9-4F8C-B85F-4FEC047D957A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:f>_xlchart.v1.76</cx:f>
               <cx:v>Reduction By K-means</cx:v>
             </cx:txData>
           </cx:tx>
@@ -459,7 +513,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0FA1A064-4076-4CED-9192-EC527C464F8D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:f>_xlchart.v1.78</cx:f>
               <cx:v>Reduction By K-means ++</cx:v>
             </cx:txData>
           </cx:tx>
@@ -486,6 +540,835 @@
 </file>
 
 <file path=xl/charts/chartEx11.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.100</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.102</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.100</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.104</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Test Suite Size Reduction</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Test Suite Size Reduction</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{8FDFB772-DBBC-452E-8BFE-1FA09A957798}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.101</cx:f>
+              <cx:v>Reduction By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{1FE11574-4EB6-44CF-A221-F9ADD92AE81C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.103</cx:f>
+              <cx:v>Reduction By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx12.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.105</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.107</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.105</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.109</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Test Suite Size Reduction</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Test Suite Size Reduction</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F9A96F06-C1E3-4082-95E0-6CD1D617F013}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.106</cx:f>
+              <cx:v>Reduction By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5722F756-B8ED-47FF-9480-E3EE51881ABE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.108</cx:f>
+              <cx:v>Reduction By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx13.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.110</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.112</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.110</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.114</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test Suite Size Reduction</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{0E3BCA7B-327D-4DD0-B37C-933CCE367519}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.111</cx:f>
+              <cx:v>Reduction By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{62F38CCD-83C3-4504-A11C-C5DEEA57B731}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.113</cx:f>
+              <cx:v>Reduction By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx14.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.115</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.117</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.115</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.119</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Test Suite Size Reduction</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Test Suite Size Reduction</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6E42D3EF-C978-4CC9-BFCB-67BB2E997C91}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.116</cx:f>
+              <cx:v>Reduction By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{32096FDA-5561-4AFA-BA35-9666AABAE7F6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.118</cx:f>
+              <cx:v>Reduction By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx15.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.120</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.122</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.120</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.124</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Test Suite Size Reduction</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Test Suite Size Reduction</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{785ADE08-C678-4890-A512-FE3856A9FF22}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.121</cx:f>
+              <cx:v>Reduction By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{44BDD5BD-7009-4000-A449-3332EAF541A7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.123</cx:f>
+              <cx:v>Reduction By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx16.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.125</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.127</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.125</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.129</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Test Suite Size Reduction</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Test Suite Size Reduction</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{EEF60DC7-2DD5-4003-9E9F-8313ED2A8839}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.126</cx:f>
+              <cx:v>Reduction By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5F7005D6-8481-4DD4-AAE7-5898E3FDF462}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.128</cx:f>
+              <cx:v>Reduction By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx17.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.130</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.132</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.130</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.134</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Test Suite Size Reduction</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Test Suite Size Reduction</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{11B59819-AD8D-467F-A225-762B8DC25488}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.131</cx:f>
+              <cx:v>Reduction By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B71B95C5-B0AD-47F0-8DC2-F25CA9DFEC96}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.133</cx:f>
+              <cx:v>Reduction By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx18.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.135</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.137</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.135</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.139</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Test Suite Size Reduction</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Test Suite Size Reduction</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{DF41C6EA-3EFE-4E9B-B0C8-41397A6759CA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.136</cx:f>
+              <cx:v>Reduction By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3EC7602A-C35F-4DFA-B86A-059C4B7FE26E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.138</cx:f>
+              <cx:v>Reduction By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx19.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.140</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.142</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.140</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.144</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Test Suite Size Reduction</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Test Suite Size Reduction</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{42923672-4E71-475D-B468-2ED82FF9BAF5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.141</cx:f>
+              <cx:v>Reduction By K-means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B630CA84-9C41-4191-B0FD-8C5FDF0E34FA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.143</cx:f>
+              <cx:v>Reduction By K-means ++</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -536,7 +1419,7 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{8FDFB772-DBBC-452E-8BFE-1FA09A957798}">
+        <cx:series layoutId="boxWhisker" uniqueId="{F9A96F06-C1E3-4082-95E0-6CD1D617F013}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.51</cx:f>
@@ -549,7 +1432,7 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{1FE11574-4EB6-44CF-A221-F9ADD92AE81C}">
+        <cx:series layoutId="boxWhisker" uniqueId="{5722F756-B8ED-47FF-9480-E3EE51881ABE}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.53</cx:f>
@@ -578,23 +1461,23 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx20.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.145</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.57</cx:f>
+        <cx:f>_xlchart.v1.147</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.145</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
+        <cx:f>_xlchart.v1.149</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -629,10 +1512,10 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{F9A96F06-C1E3-4082-95E0-6CD1D617F013}">
+        <cx:series layoutId="boxWhisker" uniqueId="{2A073B5F-D6A9-4F8C-B85F-4FEC047D957A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.56</cx:f>
+              <cx:f>_xlchart.v1.146</cx:f>
               <cx:v>Reduction By K-means</cx:v>
             </cx:txData>
           </cx:tx>
@@ -642,10 +1525,10 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5722F756-B8ED-47FF-9480-E3EE51881ABE}">
+        <cx:series layoutId="boxWhisker" uniqueId="{0FA1A064-4076-4CED-9192-EC527C464F8D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.58</cx:f>
+              <cx:f>_xlchart.v1.148</cx:f>
               <cx:v>Reduction By K-means ++</cx:v>
             </cx:txData>
           </cx:tx>
@@ -671,7 +1554,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -756,23 +1639,23 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.65</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.67</cx:f>
+        <cx:f>_xlchart.v1.57</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.65</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.69</cx:f>
+        <cx:f>_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -810,7 +1693,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6E42D3EF-C978-4CC9-BFCB-67BB2E997C91}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.66</cx:f>
+              <cx:f>_xlchart.v1.56</cx:f>
               <cx:v>Reduction By K-means</cx:v>
             </cx:txData>
           </cx:tx>
@@ -823,7 +1706,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{32096FDA-5561-4AFA-BA35-9666AABAE7F6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.68</cx:f>
+              <cx:f>_xlchart.v1.58</cx:f>
               <cx:v>Reduction By K-means ++</cx:v>
             </cx:txData>
           </cx:tx>
@@ -849,7 +1732,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -942,23 +1825,23 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.75</cx:f>
+        <cx:f>_xlchart.v1.90</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.77</cx:f>
+        <cx:f>_xlchart.v1.92</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.75</cx:f>
+        <cx:f>_xlchart.v1.90</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.79</cx:f>
+        <cx:f>_xlchart.v1.94</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -996,7 +1879,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EEF60DC7-2DD5-4003-9E9F-8313ED2A8839}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.76</cx:f>
+              <cx:f>_xlchart.v1.91</cx:f>
               <cx:v>Reduction By K-means</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1009,7 +1892,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5F7005D6-8481-4DD4-AAE7-5898E3FDF462}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.78</cx:f>
+              <cx:f>_xlchart.v1.93</cx:f>
               <cx:v>Reduction By K-means ++</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1035,23 +1918,23 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.80</cx:f>
+        <cx:f>_xlchart.v1.95</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.82</cx:f>
+        <cx:f>_xlchart.v1.97</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.80</cx:f>
+        <cx:f>_xlchart.v1.95</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.84</cx:f>
+        <cx:f>_xlchart.v1.99</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1089,7 +1972,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{11B59819-AD8D-467F-A225-762B8DC25488}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.81</cx:f>
+              <cx:f>_xlchart.v1.96</cx:f>
               <cx:v>Reduction By K-means</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1102,7 +1985,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B71B95C5-B0AD-47F0-8DC2-F25CA9DFEC96}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.83</cx:f>
+              <cx:f>_xlchart.v1.98</cx:f>
               <cx:v>Reduction By K-means ++</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1128,7 +2011,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -1221,23 +2104,23 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx9.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.90</cx:f>
+        <cx:f>_xlchart.v1.80</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.92</cx:f>
+        <cx:f>_xlchart.v1.82</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.90</cx:f>
+        <cx:f>_xlchart.v1.80</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.94</cx:f>
+        <cx:f>_xlchart.v1.84</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1275,7 +2158,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{42923672-4E71-475D-B468-2ED82FF9BAF5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.91</cx:f>
+              <cx:f>_xlchart.v1.81</cx:f>
               <cx:v>Reduction By K-means</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1288,836 +2171,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B630CA84-9C41-4191-B0FD-8C5FDF0E34FA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.93</cx:f>
-              <cx:v>Reduction By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.25</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.25</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Test Suite Size Reduction</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Test Suite Size Reduction</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{F9A96F06-C1E3-4082-95E0-6CD1D617F013}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
-              <cx:v>Reduction By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5722F756-B8ED-47FF-9480-E3EE51881ABE}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
-              <cx:v>Reduction By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx20.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.95</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.97</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.95</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.99</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Test Suite Size Reduction</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Test Suite Size Reduction</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{2A073B5F-D6A9-4F8C-B85F-4FEC047D957A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.96</cx:f>
-              <cx:v>Reduction By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{0FA1A064-4076-4CED-9192-EC527C464F8D}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.98</cx:f>
-              <cx:v>Reduction By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Test Suite Size Reduction</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{0E3BCA7B-327D-4DD0-B37C-933CCE367519}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>Reduction By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{62F38CCD-83C3-4504-A11C-C5DEEA57B731}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>Reduction By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.35</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.35</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Test Suite Size Reduction</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Test Suite Size Reduction</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{6E42D3EF-C978-4CC9-BFCB-67BB2E997C91}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
-              <cx:v>Reduction By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{32096FDA-5561-4AFA-BA35-9666AABAE7F6}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
-              <cx:v>Reduction By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Test Suite Size Reduction</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Test Suite Size Reduction</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{785ADE08-C678-4890-A512-FE3856A9FF22}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
-              <cx:v>Reduction By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{44BDD5BD-7009-4000-A449-3332EAF541A7}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.23</cx:f>
-              <cx:v>Reduction By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Test Suite Size Reduction</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Test Suite Size Reduction</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{EEF60DC7-2DD5-4003-9E9F-8313ED2A8839}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>Reduction By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5F7005D6-8481-4DD4-AAE7-5898E3FDF462}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
-              <cx:v>Reduction By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.40</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.42</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.40</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.44</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Test Suite Size Reduction</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Test Suite Size Reduction</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{11B59819-AD8D-467F-A225-762B8DC25488}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.41</cx:f>
-              <cx:v>Reduction By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{B71B95C5-B0AD-47F0-8DC2-F25CA9DFEC96}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.43</cx:f>
-              <cx:v>Reduction By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Test Suite Size Reduction</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Test Suite Size Reduction</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{DF41C6EA-3EFE-4E9B-B0C8-41397A6759CA}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
-              <cx:v>Reduction By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{3EC7602A-C35F-4DFA-B86A-059C4B7FE26E}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
-              <cx:v>Reduction By K-means ++</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx9.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.30</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.30</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.34</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Test Suite Size Reduction</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>Test Suite Size Reduction</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{42923672-4E71-475D-B468-2ED82FF9BAF5}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.31</cx:f>
-              <cx:v>Reduction By K-means</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{B630CA84-9C41-4191-B0FD-8C5FDF0E34FA}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.33</cx:f>
+              <cx:f>_xlchart.v1.83</cx:f>
               <cx:v>Reduction By K-means ++</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13248,24 +13302,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>6096</xdr:rowOff>
+      <xdr:rowOff>21336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="12" name="Chart 11">
+            <xdr:cNvPr id="22" name="Chart 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25403DF4-50F9-406C-B26F-D15855DBE08E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15EB9871-FDA8-4E21-A222-EFE4E8701F18}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13292,7 +13346,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15240" y="17487900"/>
+              <a:off x="0" y="17503140"/>
               <a:ext cx="4846320" cy="2002536"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -13340,10 +13394,10 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="13" name="Chart 12">
+            <xdr:cNvPr id="23" name="Chart 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC1C8DA-B726-4247-9071-D329DB8DF0CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D466D7-625A-4DB1-9B49-A4C7FFBC1A06}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13404,24 +13458,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>28956</xdr:rowOff>
+      <xdr:rowOff>36576</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="14" name="Chart 13">
+            <xdr:cNvPr id="24" name="Chart 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCDA8BF9-9CD5-4F08-894F-746FDB002901}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E064325C-07B2-4CBB-A24A-E2D08241A655}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13448,7 +13502,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="13525500"/>
+              <a:off x="7620" y="13533120"/>
               <a:ext cx="4846320" cy="2002536"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -13484,22 +13538,22 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>13716</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>120396</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="15" name="Chart 14">
+            <xdr:cNvPr id="25" name="Chart 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD0C36A6-835C-4B46-8A65-D2F52BAE3DFF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64D0DE0-1BAA-4C4A-BE79-0F75CC7C75D7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13526,7 +13580,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="11551920"/>
+              <a:off x="0" y="11529060"/>
               <a:ext cx="4846320" cy="2002536"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -13560,24 +13614,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>51816</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="16" name="Chart 15">
+            <xdr:cNvPr id="26" name="Chart 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AAE45F7-4E4E-4BB3-BD4E-83F67C02EF45}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7FAA74-51D6-431E-997A-45BA851B4CE2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13604,8 +13658,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="30480" y="9624060"/>
-              <a:ext cx="4815840" cy="1950720"/>
+              <a:off x="0" y="9631680"/>
+              <a:ext cx="4846320" cy="2002536"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13640,22 +13694,22 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>28956</xdr:rowOff>
+      <xdr:rowOff>21336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="17" name="Chart 16">
+            <xdr:cNvPr id="27" name="Chart 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6FB3F23-7D77-4AFD-8E21-28F9B7291BC7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A35F03-7370-4825-B33D-C744141259EA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13682,7 +13736,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7620" y="7665720"/>
+              <a:off x="7620" y="7658100"/>
               <a:ext cx="4846320" cy="2002536"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -13716,24 +13770,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>13716</xdr:rowOff>
+      <xdr:rowOff>21336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="18" name="Chart 17">
+            <xdr:cNvPr id="28" name="Chart 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{890D8A58-1F1C-4351-A1BA-60AC48DC6A1D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801B99B0-927F-47F3-8C64-57C028F34234}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13760,7 +13814,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15240" y="5699760"/>
+              <a:off x="0" y="5707380"/>
               <a:ext cx="4846320" cy="2002536"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -13794,24 +13848,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>74676</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="19" name="Chart 18">
+            <xdr:cNvPr id="29" name="Chart 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3681D67E-5807-45C9-A49F-9060BE1C4A7D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3A601D-4581-453B-AF68-629F171155CE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13838,8 +13892,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="22860" y="3802380"/>
-              <a:ext cx="4846320" cy="1965960"/>
+              <a:off x="0" y="3817620"/>
+              <a:ext cx="4846320" cy="2002536"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13873,23 +13927,23 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>59436</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="20" name="Chart 19">
+            <xdr:cNvPr id="30" name="Chart 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E724D52F-CD5E-4A0F-9B87-9AFF44EBE820}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B21B2B-A940-4260-88B3-810F5FFAE401}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13916,8 +13970,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="1905000"/>
-              <a:ext cx="4846320" cy="1920240"/>
+              <a:off x="0" y="1882140"/>
+              <a:ext cx="4846320" cy="2002536"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13958,16 +14012,16 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="21" name="Chart 20">
+            <xdr:cNvPr id="31" name="Chart 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56424481-94AF-4089-AA79-70CED010723E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F6C0F7-C434-4AE7-998C-DD6656DC4FF5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13995,7 +14049,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
-              <a:ext cx="4846320" cy="1927860"/>
+              <a:ext cx="4846320" cy="1935480"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14034,13 +14088,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14077,8 +14131,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4914900" y="914400"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4914900" y="365760"/>
+              <a:ext cx="4770120" cy="2560320"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14117,14 +14171,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -14160,8 +14214,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4732020" y="2392680"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4732020" y="1645920"/>
+              <a:ext cx="4572000" cy="1744980"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14283,13 +14337,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14326,8 +14380,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5928360" y="1021080"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5928360" y="655320"/>
+              <a:ext cx="4572000" cy="2560320"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14366,13 +14420,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14409,8 +14463,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4732020" y="1630680"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4732020" y="914400"/>
+              <a:ext cx="4572000" cy="1630680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14449,13 +14503,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14492,8 +14546,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4533900" y="914400"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4533900" y="548640"/>
+              <a:ext cx="4716780" cy="1828800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14532,14 +14586,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -14575,8 +14629,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4869180" y="1630680"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4869180" y="1082040"/>
+              <a:ext cx="4808220" cy="1798320"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14615,13 +14669,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14658,8 +14712,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4457700" y="1463040"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4457700" y="914400"/>
+              <a:ext cx="4572000" cy="2011680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14698,14 +14752,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -14741,8 +14795,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4945380" y="754380"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4945380" y="365760"/>
+              <a:ext cx="4869180" cy="2369820"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14781,13 +14835,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -14824,8 +14878,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4503420" y="944880"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4503420" y="396240"/>
+              <a:ext cx="4572000" cy="2926080"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15157,1241 +15211,1241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6866EB0-98A5-4D0D-8AE2-19D296E45D25}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I110"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="7">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="8"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="9"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="6">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="8"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="8"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="8"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="8"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="8"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="8"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="8"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="8"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="8"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="8"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="8"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="8"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="8"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="9"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="7">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="6">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="8"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="8"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="8"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="8"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="8"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="8"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="8"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="8"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="8"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="9"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="7">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="8"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="8"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="8"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="8"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="8"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="8"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="8"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="8"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="8"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="9"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="7">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="8"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="7"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="8"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="8"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="8"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="8"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="7"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="8"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="7"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="8"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="8"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="7"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="8"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="7"/>
     </row>
     <row r="66" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="9"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="7">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="8"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="7"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="8"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="7"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="8"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="7"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="8"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="7"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="8"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="7"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="8"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="7"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="8"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="7"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="8"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="7"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="8"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="7"/>
     </row>
     <row r="77" spans="1:9" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="9"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="7">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="8"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="7"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="8"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="7"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="8"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="7"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="8"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="7"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="8"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="8"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="7"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="8"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="7"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="8"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="7"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="8"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="7"/>
     </row>
     <row r="88" spans="1:9" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="9"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="7">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="8"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="7"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="8"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="7"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="8"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="7"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="8"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="7"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="8"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="7"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="8"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="7"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="8"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="7"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="8"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="7"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="8"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="7"/>
     </row>
     <row r="99" spans="1:9" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="9"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="8"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="7">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="8"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="7"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="8"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="7"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="8"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="7"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="8"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="7"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="8"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="7"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="8"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="7"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="8"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="7"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="8"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="7"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="8"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="7"/>
     </row>
     <row r="110" spans="1:9" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="9"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -16413,10 +16467,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF7B531-CFD8-46B1-BA47-FCE5C3D3CEA7}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C26"/>
+      <selection activeCell="C18" sqref="C18:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16425,16 +16479,16 @@
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
@@ -16444,267 +16498,212 @@
         <v>78.092243186582806</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>79.551656920077974</v>
+        <v>76.682926829268283</v>
       </c>
       <c r="C3" s="2">
-        <v>79.532163742690059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>83.484320557491287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>78.688845401174163</v>
+        <v>75.853658536585371</v>
       </c>
       <c r="C4" s="2">
-        <v>78.864970645792567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>85.853658536585371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>79.069767441860463</v>
+        <v>76.25570776255708</v>
       </c>
       <c r="C5" s="2">
-        <v>78.73062015503875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>84.271943176052758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>76.682926829268283</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C6" s="2">
-        <v>83.403361344537814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>75.853658536585371</v>
+        <v>76.251455180442377</v>
       </c>
       <c r="C7" s="2">
-        <v>86.757990867579906</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>76.833527357392313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>76.25570776255708</v>
+        <v>76.612339930151336</v>
       </c>
       <c r="C8" s="2">
-        <v>84.199796126401623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
+        <v>75.925494761350407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>76.400000000000006</v>
+        <v>76.104651162790688</v>
       </c>
       <c r="C9" s="2">
-        <v>76.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>76.531007751937992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>77.046818727491001</v>
+        <v>88.472505091649694</v>
       </c>
       <c r="C10" s="2">
-        <v>76.967930029154516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>86.354378818737274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>76.251455180442377</v>
+        <v>88.513238289205702</v>
       </c>
       <c r="C11" s="2">
-        <v>76.833527357392313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>86.354378818737274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>76.612339930151336</v>
+        <v>88.553971486761725</v>
       </c>
       <c r="C12" s="2">
-        <v>75.925494761350407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>86.354378818737274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>76.104651162790688</v>
+        <v>88.350305498981669</v>
       </c>
       <c r="C13" s="2">
-        <v>76.531007751937992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+        <v>86.150712830957232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>88.472505091649694</v>
+        <v>87.47933884297521</v>
       </c>
       <c r="C14" s="2">
-        <v>86.354378818737274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>2</v>
+        <v>84.710743801652882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>88.513238289205702</v>
-      </c>
-      <c r="C15" s="2">
-        <v>86.354378818737274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>2</v>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>88.553971486761725</v>
-      </c>
-      <c r="C16" s="2">
-        <v>86.354378818737274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>2</v>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>88.350305498981669</v>
-      </c>
-      <c r="C17" s="2">
-        <v>86.150712830957232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>2</v>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B18" s="2">
-        <v>88.187372708757636</v>
+        <v>44.117647058823529</v>
       </c>
       <c r="C18" s="2">
-        <v>86.150712830957232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>2</v>
+        <v>61.764705882352942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B19" s="2">
-        <v>87.617107942973519</v>
+        <v>44.537815126050418</v>
       </c>
       <c r="C19" s="2">
-        <v>86.150712830957232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
+        <v>58.82352941176471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>87.125506072874487</v>
+        <v>42.156862745098032</v>
       </c>
       <c r="C20" s="2">
-        <v>84.210526315789465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>2</v>
+        <v>29.411764705882355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B21" s="2">
-        <v>87.47933884297521</v>
+        <v>35.294117647058826</v>
       </c>
       <c r="C21" s="2">
-        <v>84.710743801652882</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>76.470588235294116</v>
-      </c>
-      <c r="C22" s="2">
-        <v>82.35294117647058</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2">
-        <v>90.909090909090907</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>90.909090909090907</v>
-      </c>
-      <c r="C24" s="2">
-        <v>58.82352941176471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>44.117647058823529</v>
-      </c>
-      <c r="C25" s="2">
-        <v>29.411764705882355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>44.537815126050418</v>
-      </c>
-      <c r="C26" s="2">
         <v>35.294117647058826</v>
       </c>
     </row>
@@ -16716,10 +16715,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5AE5ED-2135-4198-9D1B-017DF220674C}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16729,16 +16728,16 @@
     <col min="3" max="3" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
@@ -16748,378 +16747,213 @@
         <v>78.448637316561843</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>79.220272904483423</v>
+        <v>76.097560975609753</v>
       </c>
       <c r="C3" s="2">
-        <v>79.239766081871338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>76.585365853658544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>78.277886497064571</v>
+        <v>76.341463414634148</v>
       </c>
       <c r="C4" s="2">
-        <v>78.147423352902806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>75.609756097560975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>79.457364341085267</v>
+        <v>75.981735159817347</v>
       </c>
       <c r="C5" s="2">
-        <v>79.215116279069761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>86.757990867579906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>76.097560975609753</v>
+        <v>76.676923076923075</v>
       </c>
       <c r="C6" s="2">
-        <v>76.585365853658544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>76.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>76.341463414634148</v>
+        <v>76.705471478463323</v>
       </c>
       <c r="C7" s="2">
-        <v>75.609756097560975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>77.415599534342263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>75.981735159817347</v>
+        <v>76.926658905704301</v>
       </c>
       <c r="C8" s="2">
-        <v>86.757990867579906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
+        <v>76.883419258273747</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>76.676923076923075</v>
+        <v>77.430232558139537</v>
       </c>
       <c r="C9" s="2">
-        <v>76.55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>77.50830564784053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>77.15486194477792</v>
+        <v>88.329938900203658</v>
       </c>
       <c r="C10" s="2">
-        <v>77.142857142857153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>86.354378818737274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>76.705471478463323</v>
+        <v>88.452138492871697</v>
       </c>
       <c r="C11" s="2">
-        <v>77.415599534342263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>86.354378818737274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>76.926658905704301</v>
+        <v>88.533604887983714</v>
       </c>
       <c r="C12" s="2">
-        <v>76.883419258273747</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>86.354378818737274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>77.430232558139537</v>
+        <v>88.61507128309573</v>
       </c>
       <c r="C13" s="2">
-        <v>77.50830564784053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
+        <v>86.150712830957232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>87.331002331002324</v>
+        <v>87.74793388429751</v>
       </c>
       <c r="C14" s="2">
-        <v>85.664335664335667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>2</v>
+        <v>84.710743801652882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>88.329938900203658</v>
+        <v>88.235294117647058</v>
       </c>
       <c r="C15" s="2">
-        <v>86.354378818737274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>2</v>
+        <v>88.235294117647058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>88.452138492871697</v>
+        <v>88.235294117647058</v>
       </c>
       <c r="C16" s="2">
-        <v>86.354378818737274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>2</v>
+        <v>88.235294117647058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>88.533604887983714</v>
+        <v>88.235294117647058</v>
       </c>
       <c r="C17" s="2">
-        <v>86.354378818737274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>2</v>
+        <v>88.235294117647058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B18" s="2">
-        <v>88.61507128309573</v>
+        <v>48.739495798319332</v>
       </c>
       <c r="C18" s="2">
-        <v>86.150712830957232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>2</v>
+        <v>64.705882352941174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B19" s="2">
-        <v>88.309572301425661</v>
+        <v>46.218487394957982</v>
       </c>
       <c r="C19" s="2">
-        <v>86.150712830957232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
+        <v>46.218487394957982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>88.574338085539708</v>
+        <v>48.235294117647051</v>
       </c>
       <c r="C20" s="2">
-        <v>86.150712830957232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>2</v>
+        <v>48.235294117647051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B21" s="2">
-        <v>87.067209775967413</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2">
-        <v>84.72505091649694</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2">
-        <v>87.46963562753038</v>
-      </c>
-      <c r="C22" s="2">
-        <v>84.210526315789465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2">
-        <v>87.74793388429751</v>
-      </c>
-      <c r="C23" s="2">
-        <v>84.710743801652882</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2">
-        <v>76.470588235294116</v>
-      </c>
-      <c r="C24" s="2">
-        <v>82.35294117647058</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2">
-        <v>87.647058823529406</v>
-      </c>
-      <c r="C25" s="2">
-        <v>88.235294117647058</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2">
-        <v>88.235294117647058</v>
-      </c>
-      <c r="C26" s="2">
-        <v>88.235294117647058</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2">
-        <v>88.235294117647058</v>
-      </c>
-      <c r="C27" s="2">
-        <v>88.235294117647058</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2">
-        <v>88.235294117647058</v>
-      </c>
-      <c r="C28" s="2">
-        <v>88.235294117647058</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2">
-        <v>88.235294117647058</v>
-      </c>
-      <c r="C29" s="2">
-        <v>88.235294117647058</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2">
-        <v>88.235294117647058</v>
-      </c>
-      <c r="C30" s="2">
-        <v>88.235294117647058</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2">
-        <v>88.235294117647058</v>
-      </c>
-      <c r="C31" s="2">
-        <v>88.235294117647058</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2">
-        <v>90.909090909090907</v>
-      </c>
-      <c r="C32" s="2">
-        <v>90.909090909090907</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2">
-        <v>48.739495798319332</v>
-      </c>
-      <c r="C33" s="2">
-        <v>46.218487394957982</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2">
-        <v>46.218487394957982</v>
-      </c>
-      <c r="C34" s="2">
-        <v>48.235294117647051</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2">
-        <v>48.235294117647051</v>
-      </c>
-      <c r="C35" s="2">
         <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2">
-        <v>43.69747899159664</v>
-      </c>
-      <c r="C36" s="2">
-        <v>55.882352941176471</v>
       </c>
     </row>
   </sheetData>
@@ -17133,7 +16967,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17155,10 +16989,10 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>73.626834381551362</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>73.38</v>
       </c>
     </row>
@@ -17166,10 +17000,10 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>63.463414634146339</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>64.146341463414629</v>
       </c>
     </row>
@@ -17177,10 +17011,10 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>63.804878048780488</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>63.414634146341463</v>
       </c>
     </row>
@@ -17188,10 +17022,10 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>62.420091324200911</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>62.557077625570777</v>
       </c>
     </row>
@@ -17199,10 +17033,10 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17210,21 +17044,21 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>67.578579743888241</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>67.497089639115245</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>67.671711292200229</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>67.869615832363223</v>
       </c>
     </row>
@@ -17232,10 +17066,10 @@
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>67.918604651162795</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>67.877906976744185</v>
       </c>
     </row>
@@ -17243,10 +17077,10 @@
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17254,43 +17088,43 @@
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6">
-        <v>53.174603174603178</v>
-      </c>
-      <c r="C11" s="6">
-        <v>50</v>
+      <c r="B11" s="5">
+        <v>38.235294117647101</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6">
-        <v>56.79012345679012</v>
-      </c>
-      <c r="C12" s="6">
-        <v>41.17647058823529</v>
+      <c r="B12" s="5">
+        <v>42.647058823529413</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>47.058823529411761</v>
       </c>
-      <c r="C13" s="6">
-        <v>41.17647058823529</v>
+      <c r="C13" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="6">
-        <v>56.25</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="5">
+        <v>48.039215686274503</v>
+      </c>
+      <c r="C14" s="5">
         <v>58.82352941176471</v>
       </c>
     </row>
@@ -17298,10 +17132,10 @@
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="6">
-        <v>44.44444444444445</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="5">
+        <v>43.529411764705884</v>
+      </c>
+      <c r="C15" s="5">
         <v>58.82352941176471</v>
       </c>
     </row>
@@ -17309,10 +17143,10 @@
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="6">
-        <v>48.039215686274503</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="5">
+        <v>50.980392156862742</v>
+      </c>
+      <c r="C16" s="5">
         <v>58.82352941176471</v>
       </c>
     </row>
@@ -17320,19 +17154,25 @@
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="6">
-        <v>43.529411764705884</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="5">
+        <v>29.411764705882355</v>
+      </c>
+      <c r="C17" s="5">
         <v>52.941176470588239</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -17387,10 +17227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A998A68B-874A-4FBE-B4B9-2CC4B9FA753D}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C23"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17422,24 +17262,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>76.37426900584795</v>
+        <v>65.121951219512198</v>
       </c>
       <c r="C3" s="2">
-        <v>75.438596491228068</v>
+        <v>66.243902439024396</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>75.930232558139537</v>
+        <v>64.607046070460711</v>
       </c>
       <c r="C4" s="2">
-        <v>75.258397932816536</v>
+        <v>65.365853658536594</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -17447,131 +17287,131 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>55.882352941176471</v>
+        <v>64.246575342465746</v>
       </c>
       <c r="C5" s="2">
-        <v>56.127450980392155</v>
+        <v>63.62252663622526</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>65.121951219512198</v>
-      </c>
-      <c r="C6" s="2">
-        <v>66.243902439024396</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>64.607046070460711</v>
+        <v>68.52153667054715</v>
       </c>
       <c r="C7" s="2">
-        <v>65.365853658536594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>68.125727590221203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>64.246575342465746</v>
+        <v>68.172293364377197</v>
       </c>
       <c r="C8" s="2">
-        <v>63.62252663622526</v>
+        <v>68.354675979821508</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>68.732558139534888</v>
+      </c>
+      <c r="C9" s="2">
+        <v>68.558139534883722</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>68.52153667054715</v>
-      </c>
-      <c r="C10" s="2">
-        <v>68.125727590221203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>68.172293364377197</v>
-      </c>
-      <c r="C11" s="2">
-        <v>68.354675979821508</v>
+        <v>44.117647058823529</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>68.732558139534888</v>
-      </c>
-      <c r="C12" s="2">
-        <v>68.558139534883722</v>
+        <v>45.588235294117645</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44.117647058823529</v>
+      </c>
+      <c r="C13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2">
-        <v>51.851851851851862</v>
+        <v>48.529411764705884</v>
       </c>
       <c r="C14" s="2">
-        <v>50</v>
+        <v>44.117647058823529</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>58.333333333333336</v>
+        <v>50.588235294117645</v>
       </c>
       <c r="C15" s="2">
-        <v>52.941176470588239</v>
+        <v>29.411764705882355</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>50.588235294117645</v>
+        <v>48.235294117647051</v>
       </c>
       <c r="C16" s="2">
-        <v>50.588235294117645</v>
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -17579,77 +17419,26 @@
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>50</v>
+        <v>45.588235294117645</v>
       </c>
       <c r="C17" s="2">
-        <v>54.54545454545454</v>
+        <v>35.294117647058826</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2">
-        <v>46.36363636363636</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44.117647058823529</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2">
-        <v>48.529411764705884</v>
-      </c>
-      <c r="C19" s="2">
-        <v>29.411764705882355</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2">
-        <v>50.588235294117645</v>
-      </c>
-      <c r="C20" s="2">
-        <v>58.82352941176471</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2">
-        <v>48.235294117647051</v>
-      </c>
-      <c r="C21" s="2">
-        <v>35.294117647058826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>46.218487394957982</v>
-      </c>
-      <c r="C22" s="2">
-        <v>29.411764705882355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>52.205882352941181</v>
-      </c>
-      <c r="C23" s="2">
-        <v>61.764705882352942</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17659,10 +17448,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069E79AB-7837-43E7-9B91-18CF028B503B}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17694,24 +17483,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>77.446393762183234</v>
+        <v>65.365853658536594</v>
       </c>
       <c r="C3" s="2">
-        <v>77.777777777777786</v>
+        <v>65.731707317073173</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>77.713178294573652</v>
+        <v>67.256097560975618</v>
       </c>
       <c r="C4" s="2">
-        <v>77.464008859357705</v>
+        <v>67.512195121951223</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -17719,289 +17508,161 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>60.049019607843135</v>
+        <v>65.61643835616438</v>
       </c>
       <c r="C5" s="2">
-        <v>59.191176470588239</v>
+        <v>65.905631659056311</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>65.365853658536594</v>
-      </c>
-      <c r="C6" s="2">
-        <v>65.731707317073173</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>67.256097560975618</v>
+        <v>70.034924330617002</v>
       </c>
       <c r="C7" s="2">
-        <v>67.512195121951223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>70.294916569654646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>65.61643835616438</v>
+        <v>68.870779976717117</v>
       </c>
       <c r="C8" s="2">
-        <v>65.905631659056311</v>
+        <v>68.684516880093128</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>61.926605504587151</v>
+        <v>69.616279069767444</v>
       </c>
       <c r="C9" s="2">
-        <v>61.743119266055047</v>
+        <v>69.627906976744185</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
         <v>0</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>70.034924330617002</v>
+        <v>76.470588235294116</v>
       </c>
       <c r="C11" s="2">
-        <v>70.294916569654646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>67.64705882352942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>68.870779976717117</v>
+        <v>56.862745098039227</v>
       </c>
       <c r="C12" s="2">
-        <v>68.684516880093128</v>
+        <v>72.941176470588246</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>69.616279069767444</v>
+        <v>52.941176470588239</v>
       </c>
       <c r="C13" s="2">
-        <v>69.627906976744185</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
+      <c r="B14" s="2">
+        <v>55.882352941176471</v>
+      </c>
+      <c r="C14" s="2">
+        <v>39.2156862745098</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>48.412698412698404</v>
+        <v>55.294117647058826</v>
       </c>
       <c r="C15" s="2">
-        <v>50</v>
+        <v>29.411764705882355</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>58.024691358024697</v>
+        <v>55.294117647058826</v>
       </c>
       <c r="C16" s="2">
-        <v>61.111111111111114</v>
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
         <v>47.058823529411761</v>
       </c>
       <c r="C17" s="2">
-        <v>64.705882352941174</v>
+        <v>52.941176470588239</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>58.82352941176471</v>
-      </c>
-      <c r="C18" s="2">
-        <v>67.058823529411768</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>52.941176470588239</v>
-      </c>
-      <c r="C19" s="2">
-        <v>67.64705882352942</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>76.470588235294116</v>
-      </c>
-      <c r="C20" s="2">
-        <v>66.666666666666657</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>58.82352941176471</v>
-      </c>
-      <c r="C21" s="2">
-        <v>72.941176470588246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>56.862745098039227</v>
-      </c>
-      <c r="C22" s="2">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2">
-        <v>52.941176470588239</v>
-      </c>
-      <c r="C23" s="2">
-        <v>74.264705882352942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2">
-        <v>81.818181818181827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>70</v>
-      </c>
-      <c r="C25" s="2">
-        <v>39.2156862745098</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>55.882352941176471</v>
-      </c>
-      <c r="C26" s="2">
-        <v>29.411764705882355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>55.294117647058826</v>
-      </c>
-      <c r="C27" s="2">
-        <v>58.82352941176471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2">
-        <v>55.294117647058826</v>
-      </c>
-      <c r="C28" s="2">
-        <v>35.294117647058826</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2">
-        <v>52.941176470588239</v>
-      </c>
-      <c r="C29" s="2">
-        <v>52.941176470588239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2">
-        <v>49.019607843137258</v>
-      </c>
-      <c r="C30" s="2">
-        <v>58.82352941176471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18011,10 +17672,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5869839-E4A6-456B-87DD-745418874FAC}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C27"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18046,24 +17707,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>77.83625730994153</v>
+        <v>68.710801393728232</v>
       </c>
       <c r="C3" s="2">
-        <v>77.582846003898638</v>
+        <v>69.756097560975604</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>77.461240310077514</v>
+        <v>66.937669376693762</v>
       </c>
       <c r="C4" s="2">
-        <v>77.616279069767444</v>
+        <v>67.512195121951223</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -18071,252 +17732,142 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>59.068627450980394</v>
+        <v>65.936073059360737</v>
       </c>
       <c r="C5" s="2">
-        <v>59.313725490196077</v>
+        <v>66.438356164383563</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>68.710801393728232</v>
-      </c>
-      <c r="C6" s="2">
-        <v>69.756097560975604</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>66.937669376693762</v>
+        <v>70.337601862630976</v>
       </c>
       <c r="C7" s="2">
-        <v>67.512195121951223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>70.247796441044414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>65.936073059360737</v>
+        <v>70.77997671711293</v>
       </c>
       <c r="C8" s="2">
-        <v>66.438356164383563</v>
+        <v>70.896391152502915</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>70.930232558139537</v>
+      </c>
+      <c r="C9" s="2">
+        <v>70.913621262458477</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>70.337601862630976</v>
-      </c>
-      <c r="C10" s="2">
-        <v>70.247796441044414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>70.77997671711293</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="C11" s="2">
-        <v>70.896391152502915</v>
+        <v>74.509803921568633</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>70.930232558139537</v>
+        <v>73.529411764705884</v>
       </c>
       <c r="C12" s="2">
-        <v>70.913621262458477</v>
+        <v>68.907563025210095</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="C13" s="2">
+        <v>68.627450980392169</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2">
-        <v>50</v>
+        <v>50.588235294117645</v>
       </c>
       <c r="C14" s="2">
-        <v>61.111111111111114</v>
+        <v>44.117647058823529</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>59.523809523809533</v>
+        <v>52.941176470588239</v>
       </c>
       <c r="C15" s="2">
-        <v>58.82352941176471</v>
+        <v>29.411764705882355</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>64.705882352941174</v>
+        <v>56.470588235294116</v>
       </c>
       <c r="C16" s="2">
-        <v>66.386554621848731</v>
+        <v>29.411764705882355</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>73.529411764705884</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2">
-        <v>68.067226890756302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>64.705882352941174</v>
-      </c>
-      <c r="C18" s="2">
-        <v>74.509803921568633</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>52.941176470588239</v>
-      </c>
-      <c r="C19" s="2">
-        <v>64.705882352941174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>73.529411764705884</v>
-      </c>
-      <c r="C20" s="2">
-        <v>68.907563025210095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>76.470588235294116</v>
-      </c>
-      <c r="C21" s="2">
-        <v>68.627450980392169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>58.82352941176471</v>
-      </c>
-      <c r="C22" s="2">
-        <v>71.428571428571431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>89.090909090909093</v>
-      </c>
-      <c r="C24" s="2">
         <v>44.117647058823529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>50.588235294117645</v>
-      </c>
-      <c r="C25" s="2">
-        <v>29.411764705882355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>52.941176470588239</v>
-      </c>
-      <c r="C26" s="2">
-        <v>44.117647058823529</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>56.470588235294116</v>
-      </c>
-      <c r="C27" s="2">
-        <v>29.411764705882355</v>
       </c>
     </row>
   </sheetData>
@@ -18327,10 +17878,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8E2865-3F7D-49BA-A57B-DD69CDC7CB61}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18362,287 +17913,166 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>78.752436647173482</v>
+        <v>67.256097560975618</v>
       </c>
       <c r="C3" s="2">
-        <v>76.656920077972714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>67.439024390243901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>75.2641878669276</v>
+        <v>67.012195121951223</v>
       </c>
       <c r="C4" s="2">
-        <v>75.081539465101116</v>
+        <v>66.463414634146346</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>76.666666666666671</v>
+        <v>66.133942161339405</v>
       </c>
       <c r="C5" s="2">
-        <v>76.065891472868216</v>
+        <v>64.992389649923894</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>67.256097560975618</v>
+        <v>71.384615384615387</v>
       </c>
       <c r="C6" s="2">
-        <v>67.439024390243901</v>
+        <v>71.34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>67.012195121951223</v>
+        <v>71.431897555296871</v>
       </c>
       <c r="C7" s="2">
-        <v>66.463414634146346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>71.575475358944516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>66.133942161339405</v>
+        <v>70.616996507566938</v>
       </c>
       <c r="C8" s="2">
-        <v>64.992389649923894</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>70.799379123011249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>71.384615384615387</v>
+        <v>71.45348837209302</v>
       </c>
       <c r="C9" s="2">
-        <v>71.34</v>
+        <v>71.495016611295682</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>73.121248499399755</v>
-      </c>
-      <c r="C10" s="2">
-        <v>73.229291716686674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>71.431897555296871</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="C11" s="2">
-        <v>71.575475358944516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>75.16339869281046</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>70.616996507566938</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="C12" s="2">
-        <v>70.799379123011249</v>
+        <v>73.529411764705884</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>71.45348837209302</v>
+        <v>52.941176470588239</v>
       </c>
       <c r="C13" s="2">
-        <v>71.495016611295682</v>
+        <v>64.117647058823536</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
+      <c r="B14" s="2">
+        <v>39.2156862745098</v>
+      </c>
+      <c r="C14" s="2">
+        <v>29.411764705882355</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>53.968253968253968</v>
+        <v>43.529411764705884</v>
       </c>
       <c r="C15" s="2">
-        <v>61.111111111111114</v>
+        <v>29.411764705882355</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>59.027777777777779</v>
+        <v>43.137254901960787</v>
       </c>
       <c r="C16" s="2">
-        <v>66.386554621848731</v>
+        <v>29.411764705882355</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>76.470588235294116</v>
+        <v>49.019607843137258</v>
       </c>
       <c r="C17" s="2">
-        <v>64.705882352941174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>58.82352941176471</v>
-      </c>
-      <c r="C18" s="2">
-        <v>75.16339869281046</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>52.941176470588239</v>
-      </c>
-      <c r="C19" s="2">
-        <v>68.627450980392169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>64.705882352941174</v>
-      </c>
-      <c r="C20" s="2">
-        <v>73.529411764705884</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>64.705882352941174</v>
-      </c>
-      <c r="C21" s="2">
-        <v>64.117647058823536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>52.941176470588239</v>
-      </c>
-      <c r="C22" s="2">
-        <v>74.705882352941174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2">
-        <v>90.909090909090907</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>90</v>
-      </c>
-      <c r="C24" s="2">
-        <v>29.411764705882355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>39.2156862745098</v>
-      </c>
-      <c r="C25" s="2">
-        <v>29.411764705882355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>43.529411764705884</v>
-      </c>
-      <c r="C26" s="2">
-        <v>29.411764705882355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>43.137254901960787</v>
-      </c>
-      <c r="C27" s="2">
-        <v>58.82352941176471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2">
-        <v>43.137254901960787</v>
-      </c>
-      <c r="C28" s="2">
         <v>52.941176470588239</v>
       </c>
     </row>
@@ -18654,10 +18084,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39875847-7D45-4E94-A967-57FE56D91A5D}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18689,277 +18119,167 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>77.407407407407419</v>
+        <v>67.073170731707322</v>
       </c>
       <c r="C3" s="2">
-        <v>77.777777777777786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>67.073170731707322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>78.806262230919771</v>
+        <v>67.317073170731717</v>
       </c>
       <c r="C4" s="2">
-        <v>79.060665362035223</v>
+        <v>67.317073170731717</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>76.686046511627907</v>
+        <v>69.025875190258759</v>
       </c>
       <c r="C5" s="2">
-        <v>76.162790697674424</v>
+        <v>67.732115677321147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>67.073170731707322</v>
+        <v>75.230769230769241</v>
       </c>
       <c r="C6" s="2">
-        <v>67.073170731707322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>75.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>67.317073170731717</v>
+        <v>72.619324796274725</v>
       </c>
       <c r="C7" s="2">
-        <v>67.317073170731717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>73.946449359720617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>69.025875190258759</v>
+        <v>71.024447031431905</v>
       </c>
       <c r="C8" s="2">
-        <v>67.732115677321147</v>
+        <v>71.129220023282898</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>75.230769230769241</v>
+        <v>71.627906976744185</v>
       </c>
       <c r="C9" s="2">
-        <v>75.23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>77.274909963985607</v>
-      </c>
-      <c r="C10" s="2">
-        <v>77.040816326530617</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>71.627906976744185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>72.619324796274725</v>
+        <v>63.529411764705891</v>
       </c>
       <c r="C11" s="2">
-        <v>73.946449359720617</v>
+        <v>75.294117647058826</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>71.024447031431905</v>
+        <v>76.470588235294116</v>
       </c>
       <c r="C12" s="2">
-        <v>71.129220023282898</v>
+        <v>76.470588235294116</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>71.627906976744185</v>
+        <v>76.470588235294116</v>
       </c>
       <c r="C13" s="2">
-        <v>71.627906976744185</v>
+        <v>76.470588235294116</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
+      <c r="B14" s="2">
+        <v>43.137254901960787</v>
+      </c>
+      <c r="C14" s="2">
+        <v>41.17647058823529</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>52.777777777777779</v>
+        <v>49.019607843137258</v>
       </c>
       <c r="C15" s="2">
-        <v>73.529411764705884</v>
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>60.416666666666664</v>
+        <v>50.588235294117645</v>
       </c>
       <c r="C16" s="2">
-        <v>69.85294117647058</v>
+        <v>44.117647058823529</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>71.764705882352942</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="C17" s="2">
-        <v>75.294117647058826</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>76.470588235294116</v>
-      </c>
-      <c r="C18" s="2">
-        <v>74.117647058823536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>74.509803921568633</v>
-      </c>
-      <c r="C19" s="2">
-        <v>76.470588235294116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>63.529411764705891</v>
-      </c>
-      <c r="C20" s="2">
-        <v>76.470588235294116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2">
-        <v>90.909090909090907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>89.090909090909093</v>
-      </c>
-      <c r="C22" s="2">
-        <v>41.17647058823529</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>43.137254901960787</v>
-      </c>
-      <c r="C23" s="2">
-        <v>44.117647058823529</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>49.019607843137258</v>
-      </c>
-      <c r="C24" s="2">
-        <v>47.058823529411761</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>50.588235294117645</v>
-      </c>
-      <c r="C25" s="2">
-        <v>58.82352941176471</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2">
         <v>52.941176470588239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>55.882352941176471</v>
-      </c>
-      <c r="C27" s="2">
-        <v>58.82352941176471</v>
       </c>
     </row>
   </sheetData>
@@ -18970,10 +18290,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F5221-F63D-4A06-B575-844C47CF8DF2}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C24"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18983,16 +18303,16 @@
     <col min="3" max="3" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
@@ -19002,246 +18322,169 @@
         <v>76.904262753319358</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>76.491228070175438</v>
+        <v>71.317073170731703</v>
       </c>
       <c r="C3" s="2">
-        <v>76.441102756892221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>67.804878048780495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>78.317025440313103</v>
+        <v>68.878048780487802</v>
       </c>
       <c r="C4" s="2">
-        <v>78.317025440313103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>69.756097560975604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>77.20930232558139</v>
+        <v>67.237442922374427</v>
       </c>
       <c r="C5" s="2">
-        <v>76.614987080103361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>67.123287671232873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>71.317073170731703</v>
+        <v>76.369230769230768</v>
       </c>
       <c r="C6" s="2">
-        <v>67.804878048780495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>76.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>68.878048780487802</v>
+        <v>72.793946449359709</v>
       </c>
       <c r="C7" s="2">
-        <v>69.756097560975604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>72.43888242142026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>67.237442922374427</v>
+        <v>72.863795110593713</v>
       </c>
       <c r="C8" s="2">
-        <v>67.123287671232873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
+        <v>73.069460613116021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>76.369230769230768</v>
+        <v>72.976744186046517</v>
       </c>
       <c r="C9" s="2">
-        <v>76.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>77.274909963985607</v>
-      </c>
-      <c r="C10" s="2">
-        <v>77.220888355342126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>72.751937984496124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>72.793946449359709</v>
-      </c>
-      <c r="C11" s="2">
-        <v>72.43888242142026</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>72.863795110593713</v>
-      </c>
-      <c r="C12" s="2">
-        <v>73.069460613116021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>72.976744186046517</v>
-      </c>
-      <c r="C13" s="2">
-        <v>72.751937984496124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6">
+        <v>64.705882352941174</v>
+      </c>
+      <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>1</v>
+      <c r="B14" s="2">
+        <v>45.588235294117645</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44.117647058823529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>54.44444444444445</v>
+        <v>51.470588235294116</v>
       </c>
       <c r="C15" s="2">
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>1</v>
+        <v>58.82352941176471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>61.111111111111114</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2">
-        <v>76.470588235294116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>1</v>
+        <v>39.2156862745098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>68.627450980392169</v>
+        <v>52.941176470588239</v>
       </c>
       <c r="C17" s="2">
-        <v>82.35294117647058</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>76.470588235294116</v>
-      </c>
-      <c r="C18" s="2">
-        <v>82.35294117647058</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2">
-        <v>90.909090909090907</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2">
-        <v>89.090909090909093</v>
-      </c>
-      <c r="C20" s="2">
-        <v>58.82352941176471</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2">
-        <v>45.588235294117645</v>
-      </c>
-      <c r="C21" s="2">
-        <v>39.2156862745098</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>51.470588235294116</v>
-      </c>
-      <c r="C22" s="2">
-        <v>39.2156862745098</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2">
         <v>52.941176470588239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>45.098039215686271</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44.117647058823529</v>
       </c>
     </row>
   </sheetData>
@@ -19252,10 +18495,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1305E75-3EFB-45B1-8D9B-FF12946223A4}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19265,16 +18508,16 @@
     <col min="3" max="3" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
@@ -19284,279 +18527,213 @@
         <v>77.830188679245282</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>78.771929824561397</v>
+        <v>74.959349593495929</v>
       </c>
       <c r="C3" s="2">
-        <v>78.102664067576356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>74.634146341463421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>78.414872798434445</v>
+        <v>70.243902439024382</v>
       </c>
       <c r="C4" s="2">
-        <v>78.424657534246577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>70.439024390243915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>78.3720930232558</v>
+        <v>74.246575342465746</v>
       </c>
       <c r="C5" s="2">
-        <v>78.585271317829452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>73.211567732115682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>74.959349593495929</v>
+        <v>76.123076923076923</v>
       </c>
       <c r="C6" s="2">
-        <v>74.634146341463421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>70.243902439024382</v>
+        <v>72.88707799767171</v>
       </c>
       <c r="C7" s="2">
-        <v>70.439024390243915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>72.293364377182769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>74.246575342465746</v>
+        <v>72.956926658905701</v>
       </c>
       <c r="C8" s="2">
-        <v>73.211567732115682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
+        <v>73.830034924330619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>76.123076923076923</v>
+        <v>75.267441860465112</v>
       </c>
       <c r="C9" s="2">
-        <v>76.099999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>75.348837209302317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>76.866746698679464</v>
+        <v>87.250509164969444</v>
       </c>
       <c r="C10" s="2">
-        <v>77.022809123649466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>86.354378818737274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>72.88707799767171</v>
+        <v>87.535641547861502</v>
       </c>
       <c r="C11" s="2">
-        <v>72.293364377182769</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>86.354378818737274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>72.956926658905701</v>
+        <v>87.169042769857427</v>
       </c>
       <c r="C12" s="2">
-        <v>73.830034924330619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>86.354378818737274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>75.267441860465112</v>
+        <v>86.598778004073324</v>
       </c>
       <c r="C13" s="2">
-        <v>75.348837209302317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+        <v>86.150712830957232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>87.250509164969444</v>
+        <v>85.371900826446279</v>
       </c>
       <c r="C14" s="2">
-        <v>86.354378818737274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>2</v>
+        <v>84.710743801652882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>87.535641547861502</v>
-      </c>
-      <c r="C15" s="2">
-        <v>86.354378818737274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>2</v>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>87.169042769857427</v>
-      </c>
-      <c r="C16" s="2">
-        <v>86.354378818737274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>2</v>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>86.598778004073324</v>
-      </c>
-      <c r="C17" s="2">
-        <v>86.150712830957232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>2</v>
+        <v>76.470588235294116</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B18" s="2">
-        <v>85.371900826446279</v>
+        <v>49.579831932773111</v>
       </c>
       <c r="C18" s="2">
-        <v>84.710743801652882</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>1</v>
+        <v>58.82352941176471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B19" s="2">
-        <v>76.470588235294116</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="C19" s="2">
-        <v>82.35294117647058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+        <v>58.82352941176471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>50</v>
+        <v>50.980392156862742</v>
       </c>
       <c r="C20" s="2">
-        <v>90.909090909090907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+        <v>58.82352941176471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="2">
-        <v>90.909090909090907</v>
+        <v>51.470588235294116</v>
       </c>
       <c r="C21" s="2">
-        <v>58.82352941176471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>49.579831932773111</v>
-      </c>
-      <c r="C22" s="2">
-        <v>58.82352941176471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>47.058823529411761</v>
-      </c>
-      <c r="C23" s="2">
-        <v>58.82352941176471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>50.980392156862742</v>
-      </c>
-      <c r="C24" s="2">
-        <v>35.294117647058826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>51.470588235294116</v>
-      </c>
-      <c r="C25" s="2">
-        <v>29.411764705882355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <v>47.058823529411761</v>
-      </c>
-      <c r="C26" s="2">
         <v>52.941176470588239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>51.470588235294116</v>
-      </c>
-      <c r="C27" s="2">
-        <v>39.2156862745098</v>
       </c>
     </row>
   </sheetData>
